--- a/Other Files/Award Voting(1-16).xlsx
+++ b/Other Files/Award Voting(1-16).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43CDA7D-2038-4D3F-9A68-D64BFB32DE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D02868-C7E0-40C0-AC8A-099AA1091B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B38" sqref="B38:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1161,27 +1161,27 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(C$2:C$18,$A21)</f>
+        <f t="shared" ref="C21:H30" si="0">COUNTIF(C$2:C$18,$A21)</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>COUNTIF(D$2:D$18,$A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(E$2:E$18,$A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f>COUNTIF(F$2:F$18,$A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f>COUNTIF(G$2:G$18,$A21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>COUNTIF(H$2:H$18,$A21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J21">
@@ -1194,35 +1194,35 @@
         <v>49</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(B$2:B$18,$A22)</f>
+        <f t="shared" ref="B22:B34" si="1">COUNTIF(B$2:B$18,$A22)</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(C$2:C$18,$A22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22">
-        <f>COUNTIF(D$2:D$18,$A22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>COUNTIF(E$2:E$18,$A22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>COUNTIF(F$2:F$18,$A22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>COUNTIF(G$2:G$18,$A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f>COUNTIF(H$2:H$18,$A22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:J36" si="0">(B22*3)+(C22*2)+(D22*1)</f>
+        <f t="shared" ref="J22:J36" si="2">(B22*3)+(C22*2)+(D22*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1231,35 +1231,35 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(B$2:B$18,$A23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(C$2:C$18,$A23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>COUNTIF(D$2:D$18,$A23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>COUNTIF(E$2:E$18,$A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>COUNTIF(F$2:F$18,$A23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>COUNTIF(G$2:G$18,$A23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>COUNTIF(H$2:H$18,$A23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1268,35 +1268,35 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(B$2:B$18,$A24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(C$2:C$18,$A24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(D$2:D$18,$A24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>COUNTIF(E$2:E$18,$A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24">
-        <f>COUNTIF(F$2:F$18,$A24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(G$2:G$18,$A24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(H$2:H$18,$A24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1305,35 +1305,35 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(B$2:B$18,$A25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(C$2:C$18,$A25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>COUNTIF(D$2:D$18,$A25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>COUNTIF(E$2:E$18,$A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>COUNTIF(F$2:F$18,$A25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>COUNTIF(G$2:G$18,$A25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H25">
-        <f>COUNTIF(H$2:H$18,$A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1342,35 +1342,35 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(B$2:B$18,$A26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(C$2:C$18,$A26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>COUNTIF(D$2:D$18,$A26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>COUNTIF(E$2:E$18,$A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f>COUNTIF(F$2:F$18,$A26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>COUNTIF(G$2:G$18,$A26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H26">
-        <f>COUNTIF(H$2:H$18,$A26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1379,35 +1379,35 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(B$2:B$18,$A27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C27">
-        <f>COUNTIF(C$2:C$18,$A27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D27">
-        <f>COUNTIF(D$2:D$18,$A27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f>COUNTIF(E$2:E$18,$A27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>COUNTIF(F$2:F$18,$A27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>COUNTIF(G$2:G$18,$A27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>COUNTIF(H$2:H$18,$A27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -1416,35 +1416,35 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(B$2:B$18,$A28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(C$2:C$18,$A28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28">
-        <f>COUNTIF(D$2:D$18,$A28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>COUNTIF(E$2:E$18,$A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28">
-        <f>COUNTIF(F$2:F$18,$A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f>COUNTIF(G$2:G$18,$A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f>COUNTIF(H$2:H$18,$A28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1453,35 +1453,35 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(B$2:B$18,$A29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(C$2:C$18,$A29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>COUNTIF(D$2:D$18,$A29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>COUNTIF(E$2:E$18,$A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f>COUNTIF(F$2:F$18,$A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f>COUNTIF(G$2:G$18,$A29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>COUNTIF(H$2:H$18,$A29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1490,35 +1490,35 @@
         <v>18</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(B$2:B$18,$A30)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(C$2:C$18,$A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D30">
-        <f>COUNTIF(D$2:D$18,$A30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E30">
-        <f>COUNTIF(E$2:E$18,$A30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>COUNTIF(F$2:F$18,$A30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30">
-        <f>COUNTIF(G$2:G$18,$A30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H30">
-        <f>COUNTIF(H$2:H$18,$A30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -1527,35 +1527,35 @@
         <v>21</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(B$2:B$18,$A31)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(C$2:C$18,$A31)</f>
+        <f t="shared" ref="C31:H36" si="3">COUNTIF(C$2:C$18,$A31)</f>
         <v>7</v>
       </c>
       <c r="D31">
-        <f>COUNTIF(D$2:D$18,$A31)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E31">
-        <f>COUNTIF(E$2:E$18,$A31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>COUNTIF(F$2:F$18,$A31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>COUNTIF(G$2:G$18,$A31)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H31">
-        <f>COUNTIF(H$2:H$18,$A31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -1564,35 +1564,35 @@
         <v>22</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(B$2:B$18,$A32)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C32">
-        <f>COUNTIF(C$2:C$18,$A32)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D32">
-        <f>COUNTIF(D$2:D$18,$A32)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E32">
-        <f>COUNTIF(E$2:E$18,$A32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>COUNTIF(F$2:F$18,$A32)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G32">
-        <f>COUNTIF(G$2:G$18,$A32)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H32">
-        <f>COUNTIF(H$2:H$18,$A32)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -1601,35 +1601,35 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(B$2:B$18,$A33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C33">
-        <f>COUNTIF(C$2:C$18,$A33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>COUNTIF(D$2:D$18,$A33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>COUNTIF(E$2:E$18,$A33)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F33">
-        <f>COUNTIF(F$2:F$18,$A33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>COUNTIF(G$2:G$18,$A33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>COUNTIF(H$2:H$18,$A33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1638,35 +1638,35 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(B$2:B$18,$A34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>COUNTIF(C$2:C$18,$A34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>COUNTIF(D$2:D$18,$A34)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E34">
-        <f>COUNTIF(E$2:E$18,$A34)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F34">
-        <f>COUNTIF(F$2:F$18,$A34)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G34">
-        <f>COUNTIF(G$2:G$18,$A34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>COUNTIF(H$2:H$18,$A34)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1675,35 +1675,35 @@
         <v>24</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B22:H36" si="1">COUNTIF(B$2:B$17,$A35)</f>
+        <f t="shared" ref="B35:B36" si="4">COUNTIF(B$2:B$17,$A35)</f>
         <v>1</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(C$2:C$18,$A35)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>COUNTIF(D$2:D$18,$A35)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E35">
-        <f>COUNTIF(E$2:E$18,$A35)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>COUNTIF(F$2:F$18,$A35)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>COUNTIF(G$2:G$18,$A35)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f>COUNTIF(H$2:H$18,$A35)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1712,35 +1712,35 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(C$2:C$18,$A36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>COUNTIF(D$2:D$18,$A36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>COUNTIF(E$2:E$18,$A36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>COUNTIF(F$2:F$18,$A36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>COUNTIF(G$2:G$18,$A36)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f>COUNTIF(H$2:H$18,$A36)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
